--- a/src/filesToParse/Сч. 233_2023.xlsx
+++ b/src/filesToParse/Сч. 233_2023.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6017A2-6F97-4AFD-A46F-AF4928E85686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="январь" sheetId="4" r:id="rId1"/>
@@ -25,12 +26,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">февраль!$A$1:$Q$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">январь!$A$1:$Q$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="40">
   <si>
     <t>                                      ОБОРОТНАЯ ВЕДОМОСТЬ                                                           </t>
   </si>
@@ -145,11 +146,17 @@
   <si>
     <t>за июнь 2023 г</t>
   </si>
+  <si>
+    <t>МОЛ: Корженко Н.В.</t>
+  </si>
+  <si>
+    <t>МОЛ: Азизова В.В.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,13 +387,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +478,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,6 +530,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -678,7 +722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P41"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -1904,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C1:P31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2712,7 +2756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:P31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -3520,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C1:P35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -4479,7 +4523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:P31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5287,7 +5331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -5295,7 +5339,7 @@
       <selection activeCell="F144" sqref="F144:O144"/>
       <selection pane="topRight" activeCell="F144" sqref="F144:O144"/>
       <selection pane="bottomLeft" activeCell="F144" sqref="F144:O144"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5519,7 @@
     </row>
     <row r="9" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -5616,7 +5660,7 @@
     </row>
     <row r="13" spans="3:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -6095,7 +6139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6107,7 +6151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6119,7 +6163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
